--- a/data/trans_orig/P57C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26ACD085-4647-4CBF-B3B5-016B7F26A818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{983AB4EA-DF57-4A36-A17A-F4CFDDABB400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4472B773-0A4C-47E2-9B9C-0DE4A88945C8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D2991B0-851E-4BDE-A0E2-36FB4CC063BB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="189">
   <si>
     <t>Población según si se ha sentido bien consigo mismo/a en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -74,190 +74,184 @@
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>En desacuerdo</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>En desacuerdo</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
+    <t>3,16%</t>
   </si>
   <si>
     <t>2,91%</t>
@@ -266,34 +260,34 @@
     <t>2,25%</t>
   </si>
   <si>
-    <t>3,62%</t>
+    <t>3,66%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
   </si>
   <si>
     <t>8,1%</t>
@@ -302,61 +296,61 @@
     <t>7,18%</t>
   </si>
   <si>
-    <t>9,03%</t>
+    <t>9,04%</t>
   </si>
   <si>
     <t>46,29%</t>
   </si>
   <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
   </si>
   <si>
     <t>50,65%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
   </si>
   <si>
     <t>48,52%</t>
   </si>
   <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
   </si>
   <si>
     <t>43,08%</t>
   </si>
   <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
   </si>
   <si>
     <t>39,61%</t>
   </si>
   <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -365,10 +359,7 @@
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>2,72%</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -377,22 +368,28 @@
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
     <t>0,74%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
+    <t>1,41%</t>
+  </si>
+  <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>1,1%</t>
   </si>
   <si>
     <t>3,25%</t>
@@ -401,217 +398,208 @@
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>2,76%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>7,16%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>43,38%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
   </si>
   <si>
     <t>48,13%</t>
   </si>
   <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
   </si>
   <si>
     <t>45,83%</t>
   </si>
   <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
   </si>
   <si>
     <t>48,6%</t>
   </si>
   <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
   </si>
   <si>
     <t>44,29%</t>
   </si>
   <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
   </si>
   <si>
     <t>46,38%</t>
   </si>
   <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
   </si>
   <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>12,24%</t>
   </si>
   <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>45,08%</t>
   </si>
   <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
   </si>
   <si>
     <t>48,56%</t>
   </si>
   <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
   </si>
   <si>
     <t>46,92%</t>
   </si>
   <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
   </si>
   <si>
     <t>41,87%</t>
   </si>
   <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
   </si>
   <si>
     <t>34,56%</t>
   </si>
   <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
   </si>
   <si>
     <t>38,0%</t>
   </si>
   <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1026,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C760EDF-8A42-42DE-916E-482F6DDFA1A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C552D15A-937F-434C-A183-DDF62F5EA80C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1476,10 +1464,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -1488,13 +1476,13 @@
         <v>49575</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,13 +1497,13 @@
         <v>51348</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -1524,13 +1512,13 @@
         <v>65297</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>144</v>
@@ -1539,13 +1527,13 @@
         <v>116645</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,13 +1548,13 @@
         <v>158853</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>281</v>
@@ -1575,13 +1563,13 @@
         <v>198333</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>446</v>
@@ -1590,13 +1578,13 @@
         <v>357186</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1599,13 @@
         <v>1000091</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>1532</v>
@@ -1626,13 +1614,13 @@
         <v>1138392</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>2540</v>
@@ -1641,13 +1629,13 @@
         <v>2138483</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,13 +1650,13 @@
         <v>930572</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>978</v>
@@ -1677,28 +1665,28 @@
         <v>815403</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>1725</v>
       </c>
       <c r="N14" s="7">
-        <v>1745975</v>
+        <v>1745976</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,7 +1728,7 @@
         <v>4908</v>
       </c>
       <c r="N15" s="7">
-        <v>4407863</v>
+        <v>4407864</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1754,7 +1742,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1766,13 +1754,13 @@
         <v>8421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1781,13 +1769,13 @@
         <v>1798</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1796,13 +1784,13 @@
         <v>10220</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,10 +1805,10 @@
         <v>10827</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -1832,13 +1820,13 @@
         <v>13600</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -1847,13 +1835,13 @@
         <v>24427</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1856,13 @@
         <v>34674</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -1883,13 +1871,13 @@
         <v>38684</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>87</v>
@@ -1898,13 +1886,13 @@
         <v>73358</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1907,13 @@
         <v>291656</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>515</v>
@@ -1934,13 +1922,13 @@
         <v>343623</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>838</v>
@@ -1949,13 +1937,13 @@
         <v>635280</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1958,13 @@
         <v>326789</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>420</v>
@@ -1985,13 +1973,13 @@
         <v>316180</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>725</v>
@@ -2000,13 +1988,13 @@
         <v>642969</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,13 +2062,13 @@
         <v>42255</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -2089,13 +2077,13 @@
         <v>51372</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -2104,13 +2092,13 @@
         <v>93626</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,13 +2113,13 @@
         <v>101722</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>249</v>
@@ -2140,13 +2128,13 @@
         <v>161980</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>363</v>
@@ -2155,13 +2143,13 @@
         <v>263702</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2164,13 @@
         <v>296030</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>680</v>
@@ -2191,13 +2179,13 @@
         <v>426474</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>1020</v>
@@ -2206,13 +2194,13 @@
         <v>722504</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2215,13 @@
         <v>1520378</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>2665</v>
@@ -2242,13 +2230,13 @@
         <v>1840399</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>4294</v>
@@ -2257,13 +2245,13 @@
         <v>3360777</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2266,13 @@
         <v>1412233</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>1676</v>
@@ -2293,13 +2281,13 @@
         <v>1309602</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>2912</v>
@@ -2308,13 +2296,13 @@
         <v>2721835</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,7 +2358,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{983AB4EA-DF57-4A36-A17A-F4CFDDABB400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1CDFC83-C8C5-402D-AA09-B7DB3E17E5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D2991B0-851E-4BDE-A0E2-36FB4CC063BB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B26A8D41-7C2E-4851-8268-60587899541C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C552D15A-937F-434C-A183-DDF62F5EA80C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ED99F2-D585-492B-A584-A81749F2572D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1CDFC83-C8C5-402D-AA09-B7DB3E17E5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B512280-8A82-4EB0-BF83-C8B03CE25B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B26A8D41-7C2E-4851-8268-60587899541C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE82156D-F85A-44DA-A3A5-EA10FF36595A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="193">
   <si>
     <t>Población según si se ha sentido bien consigo mismo/a en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -74,532 +74,544 @@
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>En desacuerdo</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>En desacuerdo</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>4,14%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>12,24%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
   </si>
   <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>45,08%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
   </si>
   <si>
     <t>48,56%</t>
   </si>
   <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
   </si>
   <si>
     <t>46,92%</t>
   </si>
   <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
   </si>
   <si>
     <t>41,87%</t>
   </si>
   <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
   </si>
   <si>
     <t>34,56%</t>
   </si>
   <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
   </si>
   <si>
     <t>38,0%</t>
   </si>
   <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1014,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ED99F2-D585-492B-A584-A81749F2572D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D13B123-BA6A-4BF9-B3F1-D624FF4D470D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1464,10 +1476,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -1476,13 +1488,13 @@
         <v>49575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,13 +1509,13 @@
         <v>51348</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -1512,13 +1524,13 @@
         <v>65297</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>144</v>
@@ -1527,13 +1539,13 @@
         <v>116645</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,13 +1560,13 @@
         <v>158853</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>281</v>
@@ -1563,13 +1575,13 @@
         <v>198333</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>446</v>
@@ -1578,13 +1590,13 @@
         <v>357186</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1599,13 +1611,13 @@
         <v>1000091</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>1532</v>
@@ -1614,13 +1626,13 @@
         <v>1138392</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>2540</v>
@@ -1629,13 +1641,13 @@
         <v>2138483</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,13 +1662,13 @@
         <v>930572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>978</v>
@@ -1665,28 +1677,28 @@
         <v>815403</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>1725</v>
       </c>
       <c r="N14" s="7">
-        <v>1745976</v>
+        <v>1745975</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,7 +1740,7 @@
         <v>4908</v>
       </c>
       <c r="N15" s="7">
-        <v>4407864</v>
+        <v>4407863</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1742,7 +1754,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1754,13 +1766,13 @@
         <v>8421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1769,13 +1781,13 @@
         <v>1798</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1784,13 +1796,13 @@
         <v>10220</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,10 +1817,10 @@
         <v>10827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -1820,13 +1832,13 @@
         <v>13600</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -1835,13 +1847,13 @@
         <v>24427</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,13 +1868,13 @@
         <v>34674</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -1871,13 +1883,13 @@
         <v>38684</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>87</v>
@@ -1886,13 +1898,13 @@
         <v>73358</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,13 +1919,13 @@
         <v>291656</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>515</v>
@@ -1922,13 +1934,13 @@
         <v>343623</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>838</v>
@@ -1937,13 +1949,13 @@
         <v>635280</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,13 +1970,13 @@
         <v>326789</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>420</v>
@@ -1973,13 +1985,13 @@
         <v>316180</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>725</v>
@@ -1988,13 +2000,13 @@
         <v>642969</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,13 +2074,13 @@
         <v>42255</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -2077,13 +2089,13 @@
         <v>51372</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -2092,13 +2104,13 @@
         <v>93626</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2125,13 @@
         <v>101722</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>249</v>
@@ -2128,13 +2140,13 @@
         <v>161980</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>363</v>
@@ -2143,13 +2155,13 @@
         <v>263702</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,13 +2176,13 @@
         <v>296030</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>680</v>
@@ -2179,13 +2191,13 @@
         <v>426474</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>1020</v>
@@ -2194,13 +2206,13 @@
         <v>722504</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,13 +2227,13 @@
         <v>1520378</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>2665</v>
@@ -2230,13 +2242,13 @@
         <v>1840399</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>4294</v>
@@ -2245,13 +2257,13 @@
         <v>3360777</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,13 +2278,13 @@
         <v>1412233</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>1676</v>
@@ -2281,13 +2293,13 @@
         <v>1309602</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>2912</v>
@@ -2296,13 +2308,13 @@
         <v>2721835</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,7 +2370,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B512280-8A82-4EB0-BF83-C8B03CE25B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB4067CF-AB1D-4C5E-A33B-5D1319F9B338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE82156D-F85A-44DA-A3A5-EA10FF36595A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DEE75253-E415-4D19-8BA3-0433CAC32199}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="195">
   <si>
     <t>Población según si se ha sentido bien consigo mismo/a en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -71,547 +71,553 @@
     <t>Muy en desacuerdo</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>En desacuerdo</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>En desacuerdo</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
   </si>
   <si>
     <t>46,92%</t>
   </si>
   <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1026,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D13B123-BA6A-4BF9-B3F1-D624FF4D470D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDFCA7-7945-41CC-BDE3-9CF0E4ACE49E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1147,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>14377</v>
+        <v>13627</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1162,7 +1168,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>19455</v>
+        <v>17648</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1177,7 +1183,7 @@
         <v>46</v>
       </c>
       <c r="N4" s="7">
-        <v>33832</v>
+        <v>31276</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1198,7 +1204,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="7">
-        <v>39547</v>
+        <v>35765</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1213,7 +1219,7 @@
         <v>141</v>
       </c>
       <c r="I5" s="7">
-        <v>83083</v>
+        <v>72785</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1228,7 +1234,7 @@
         <v>195</v>
       </c>
       <c r="N5" s="7">
-        <v>122630</v>
+        <v>108550</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1249,7 +1255,7 @@
         <v>139</v>
       </c>
       <c r="D6" s="7">
-        <v>102503</v>
+        <v>94496</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1264,7 +1270,7 @@
         <v>348</v>
       </c>
       <c r="I6" s="7">
-        <v>189457</v>
+        <v>170336</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1279,7 +1285,7 @@
         <v>487</v>
       </c>
       <c r="N6" s="7">
-        <v>291960</v>
+        <v>264831</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1300,7 +1306,7 @@
         <v>298</v>
       </c>
       <c r="D7" s="7">
-        <v>228631</v>
+        <v>222937</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1315,7 +1321,7 @@
         <v>618</v>
       </c>
       <c r="I7" s="7">
-        <v>358384</v>
+        <v>326870</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1330,7 +1336,7 @@
         <v>916</v>
       </c>
       <c r="N7" s="7">
-        <v>587014</v>
+        <v>549807</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1351,7 +1357,7 @@
         <v>184</v>
       </c>
       <c r="D8" s="7">
-        <v>154871</v>
+        <v>146523</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1366,7 +1372,7 @@
         <v>278</v>
       </c>
       <c r="I8" s="7">
-        <v>178019</v>
+        <v>161350</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1381,7 +1387,7 @@
         <v>462</v>
       </c>
       <c r="N8" s="7">
-        <v>332890</v>
+        <v>307873</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1402,7 +1408,7 @@
         <v>689</v>
       </c>
       <c r="D9" s="7">
-        <v>539930</v>
+        <v>513348</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -1417,7 +1423,7 @@
         <v>1417</v>
       </c>
       <c r="I9" s="7">
-        <v>828397</v>
+        <v>748989</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -1432,7 +1438,7 @@
         <v>2106</v>
       </c>
       <c r="N9" s="7">
-        <v>1368327</v>
+        <v>1262337</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -1455,7 +1461,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>19456</v>
+        <v>17633</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -1470,7 +1476,7 @@
         <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>30119</v>
+        <v>27022</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -1485,7 +1491,7 @@
         <v>53</v>
       </c>
       <c r="N10" s="7">
-        <v>49575</v>
+        <v>44655</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -1506,7 +1512,7 @@
         <v>51</v>
       </c>
       <c r="D11" s="7">
-        <v>51348</v>
+        <v>46998</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -1521,7 +1527,7 @@
         <v>93</v>
       </c>
       <c r="I11" s="7">
-        <v>65297</v>
+        <v>58131</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
@@ -1536,7 +1542,7 @@
         <v>144</v>
       </c>
       <c r="N11" s="7">
-        <v>116645</v>
+        <v>105129</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -1557,7 +1563,7 @@
         <v>165</v>
       </c>
       <c r="D12" s="7">
-        <v>158853</v>
+        <v>149584</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -1572,7 +1578,7 @@
         <v>281</v>
       </c>
       <c r="I12" s="7">
-        <v>198333</v>
+        <v>177223</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>83</v>
@@ -1587,7 +1593,7 @@
         <v>446</v>
       </c>
       <c r="N12" s="7">
-        <v>357186</v>
+        <v>326808</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>86</v>
@@ -1608,7 +1614,7 @@
         <v>1008</v>
       </c>
       <c r="D13" s="7">
-        <v>1000091</v>
+        <v>989300</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -1623,7 +1629,7 @@
         <v>1532</v>
       </c>
       <c r="I13" s="7">
-        <v>1138392</v>
+        <v>1183499</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>92</v>
@@ -1638,7 +1644,7 @@
         <v>2540</v>
       </c>
       <c r="N13" s="7">
-        <v>2138483</v>
+        <v>2172800</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>95</v>
@@ -1659,7 +1665,7 @@
         <v>747</v>
       </c>
       <c r="D14" s="7">
-        <v>930572</v>
+        <v>1085180</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>98</v>
@@ -1674,7 +1680,7 @@
         <v>978</v>
       </c>
       <c r="I14" s="7">
-        <v>815403</v>
+        <v>790093</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>101</v>
@@ -1689,7 +1695,7 @@
         <v>1725</v>
       </c>
       <c r="N14" s="7">
-        <v>1745975</v>
+        <v>1875274</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>104</v>
@@ -1710,7 +1716,7 @@
         <v>1990</v>
       </c>
       <c r="D15" s="7">
-        <v>2160320</v>
+        <v>2288695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -1725,7 +1731,7 @@
         <v>2918</v>
       </c>
       <c r="I15" s="7">
-        <v>2247543</v>
+        <v>2235969</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1740,7 +1746,7 @@
         <v>4908</v>
       </c>
       <c r="N15" s="7">
-        <v>4407863</v>
+        <v>4524665</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1763,37 +1769,37 @@
         <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>8421</v>
+        <v>8151</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1798</v>
+        <v>1615</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>10220</v>
+        <v>9765</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -1802,7 +1808,7 @@
         <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,46 +1820,46 @@
         <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>10827</v>
+        <v>10596</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>13600</v>
+        <v>12200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
       </c>
       <c r="N17" s="7">
-        <v>24427</v>
+        <v>22796</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,46 +1871,46 @@
         <v>36</v>
       </c>
       <c r="D18" s="7">
-        <v>34674</v>
+        <v>32209</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
       </c>
       <c r="I18" s="7">
-        <v>38684</v>
+        <v>34847</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>87</v>
       </c>
       <c r="N18" s="7">
-        <v>73358</v>
+        <v>67056</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,46 +1922,46 @@
         <v>323</v>
       </c>
       <c r="D19" s="7">
-        <v>291656</v>
+        <v>282123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>515</v>
       </c>
       <c r="I19" s="7">
-        <v>343623</v>
+        <v>323612</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>838</v>
       </c>
       <c r="N19" s="7">
-        <v>635280</v>
+        <v>605735</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,46 +1973,46 @@
         <v>305</v>
       </c>
       <c r="D20" s="7">
-        <v>326789</v>
+        <v>312905</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>420</v>
       </c>
       <c r="I20" s="7">
-        <v>316180</v>
+        <v>288188</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>725</v>
       </c>
       <c r="N20" s="7">
-        <v>642969</v>
+        <v>601093</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,7 +2024,7 @@
         <v>680</v>
       </c>
       <c r="D21" s="7">
-        <v>672367</v>
+        <v>645983</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2033,7 +2039,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2048,7 +2054,7 @@
         <v>1684</v>
       </c>
       <c r="N21" s="7">
-        <v>1386254</v>
+        <v>1306445</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -2071,46 +2077,46 @@
         <v>40</v>
       </c>
       <c r="D22" s="7">
-        <v>42255</v>
+        <v>39411</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
       </c>
       <c r="I22" s="7">
-        <v>51372</v>
+        <v>46285</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
       </c>
       <c r="N22" s="7">
-        <v>93626</v>
+        <v>85695</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,46 +2128,46 @@
         <v>114</v>
       </c>
       <c r="D23" s="7">
-        <v>101722</v>
+        <v>93358</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>249</v>
       </c>
       <c r="I23" s="7">
-        <v>161980</v>
+        <v>143117</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>363</v>
       </c>
       <c r="N23" s="7">
-        <v>263702</v>
+        <v>236475</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,46 +2179,46 @@
         <v>340</v>
       </c>
       <c r="D24" s="7">
-        <v>296030</v>
+        <v>276289</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>680</v>
       </c>
       <c r="I24" s="7">
-        <v>426474</v>
+        <v>382406</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>1020</v>
       </c>
       <c r="N24" s="7">
-        <v>722504</v>
+        <v>658695</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,46 +2230,46 @@
         <v>1629</v>
       </c>
       <c r="D25" s="7">
-        <v>1520378</v>
+        <v>1494360</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>2665</v>
       </c>
       <c r="I25" s="7">
-        <v>1840399</v>
+        <v>1833982</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>4294</v>
       </c>
       <c r="N25" s="7">
-        <v>3360777</v>
+        <v>3328341</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,46 +2281,46 @@
         <v>1236</v>
       </c>
       <c r="D26" s="7">
-        <v>1412233</v>
+        <v>1544608</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>1676</v>
       </c>
       <c r="I26" s="7">
-        <v>1309602</v>
+        <v>1239632</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>2912</v>
       </c>
       <c r="N26" s="7">
-        <v>2721835</v>
+        <v>2784240</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,7 +2332,7 @@
         <v>3359</v>
       </c>
       <c r="D27" s="7">
-        <v>3372618</v>
+        <v>3448026</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2341,7 +2347,7 @@
         <v>5339</v>
       </c>
       <c r="I27" s="7">
-        <v>3789826</v>
+        <v>3645421</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2356,7 +2362,7 @@
         <v>8698</v>
       </c>
       <c r="N27" s="7">
-        <v>7162444</v>
+        <v>7093447</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2370,7 +2376,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
